--- a/biology/Botanique/Boule_de_Neige_(rose)/Boule_de_Neige_(rose).xlsx
+++ b/biology/Botanique/Boule_de_Neige_(rose)/Boule_de_Neige_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Boule de Neige' est un cultivar de rose ancienne obtenu en 1867 par François Lacharme. Il s'agit d'un hybride de rosier Bourbon.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier arbustif à port dressé est très florifère. Non remontant en principe, il arrive pourtant qu'il y ait une petite floraison à la fin de l'été[1]. Ses fleurs blanches, ressemblant à des fleurs de  camélia[2], sont très doubles (26-40 pétales), pleines et groupées en bouquets[3]. Elles sont très parfumées.
-Le buisson, au feuillage dense et vert foncé, s'élève à 150 cm. Il est parfait en haie ou en massif[4].
-Elle est issue d'un croisement 'Mademoiselle Blanche Lafitte' (Bourbon, Pradel 1851) x 'Sappho' (hybride perpétuel de rose de Damas, Vibert 1842)[5]. On peut l'admirer notamment à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier arbustif à port dressé est très florifère. Non remontant en principe, il arrive pourtant qu'il y ait une petite floraison à la fin de l'été. Ses fleurs blanches, ressemblant à des fleurs de  camélia, sont très doubles (26-40 pétales), pleines et groupées en bouquets. Elles sont très parfumées.
+Le buisson, au feuillage dense et vert foncé, s'élève à 150 cm. Il est parfait en haie ou en massif.
+Elle est issue d'un croisement 'Mademoiselle Blanche Lafitte' (Bourbon, Pradel 1851) x 'Sappho' (hybride perpétuel de rose de Damas, Vibert 1842). On peut l'admirer notamment à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 </t>
         </is>
       </c>
